--- a/horarios_optimizados-770-push_gap_0.80.xlsx
+++ b/horarios_optimizados-770-push_gap_0.80.xlsx
@@ -609,87 +609,23 @@
       <c r="D5" s="4" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr"/>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
       <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
+      <c r="W5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -717,11 +653,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr">
@@ -759,10 +691,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T6" s="4" t="inlineStr"/>
       <c r="U6" s="4" t="inlineStr"/>
       <c r="V6" s="4" t="inlineStr"/>
@@ -774,44 +722,16 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr"/>
       <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -867,7 +787,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr"/>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -875,37 +799,17 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr"/>
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -921,11 +825,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L8" s="4" t="inlineStr"/>
       <c r="M8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -936,15 +836,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -952,21 +888,9 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1031,8 +955,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1041,21 +973,9 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1120,9 +1040,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1130,26 +1062,94 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr"/>
       <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V11" s="4" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr"/>
     </row>
@@ -1239,33 +1239,25 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1306,11 +1298,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q15" s="4" t="inlineStr"/>
       <c r="R15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1331,8 +1319,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr"/>
-      <c r="W15" s="4" t="inlineStr"/>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1340,11 +1336,31 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1355,32 +1371,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
       <c r="M16" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1522,11 +1526,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1534,16 +1534,52 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr"/>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1559,51 +1595,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1620,7 +1620,11 @@
       <c r="H19" s="4" t="inlineStr"/>
       <c r="I19" s="4" t="inlineStr"/>
       <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1636,11 +1640,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O19" s="4" t="inlineStr"/>
       <c r="P19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1874,26 +1874,94 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr"/>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V25" s="4" t="inlineStr"/>
       <c r="W25" s="4" t="inlineStr"/>
     </row>
@@ -1903,80 +1971,24 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr"/>
       <c r="I26" s="4" t="inlineStr"/>
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
       <c r="T26" s="4" t="inlineStr"/>
       <c r="U26" s="4" t="inlineStr"/>
       <c r="V26" s="4" t="inlineStr"/>
@@ -1988,10 +2000,26 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2002,11 +2030,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H27" s="4" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2032,52 +2056,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr"/>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr"/>
+      <c r="P27" s="4" t="inlineStr"/>
+      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr"/>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -2186,15 +2178,47 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr"/>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2216,46 +2240,14 @@
         </is>
       </c>
       <c r="O29" s="4" t="inlineStr"/>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P29" s="4" t="inlineStr"/>
+      <c r="Q29" s="4" t="inlineStr"/>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr"/>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
+      <c r="W29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2270,9 +2262,21 @@
       <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2283,11 +2287,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N30" s="4" t="inlineStr"/>
       <c r="O30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2614,11 +2614,31 @@
       <c r="C36" s="4" t="inlineStr"/>
       <c r="D36" s="4" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="inlineStr"/>
-      <c r="J36" s="4" t="inlineStr"/>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2639,7 +2659,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O36" s="4" t="inlineStr"/>
+      <c r="O36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2650,11 +2674,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R36" s="4" t="inlineStr"/>
       <c r="S36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2693,22 +2713,82 @@
       <c r="E37" s="4" t="inlineStr"/>
       <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
-      <c r="J37" s="4" t="inlineStr"/>
-      <c r="K37" s="4" t="inlineStr"/>
-      <c r="L37" s="4" t="inlineStr"/>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr"/>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr"/>
-      <c r="W37" s="4" t="inlineStr"/>
+      <c r="N37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2722,27 +2802,15 @@
       <c r="E38" s="4" t="inlineStr"/>
       <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="inlineStr"/>
-      <c r="H38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr"/>
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2805,47 +2873,15 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
       <c r="K39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2866,15 +2902,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O39" s="4" t="inlineStr"/>
-      <c r="P39" s="4" t="inlineStr"/>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr"/>
-      <c r="W39" s="4" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2908,12 +2976,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2967,94 +3035,26 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
       <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="inlineStr"/>
       <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I41" s="4" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr"/>
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr"/>
+      <c r="P41" s="4" t="inlineStr"/>
+      <c r="Q41" s="4" t="inlineStr"/>
+      <c r="R41" s="4" t="inlineStr"/>
+      <c r="S41" s="4" t="inlineStr"/>
+      <c r="T41" s="4" t="inlineStr"/>
+      <c r="U41" s="4" t="inlineStr"/>
       <c r="V41" s="4" t="inlineStr"/>
       <c r="W41" s="4" t="inlineStr"/>
     </row>
@@ -3260,10 +3260,26 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr"/>
-      <c r="C49" s="4" t="inlineStr"/>
-      <c r="D49" s="4" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
           <t>S</t>
@@ -3289,62 +3305,46 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K49" s="4" t="inlineStr"/>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="K49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="M49" s="4" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="N49" s="4" t="inlineStr">
+      <c r="P49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="O49" s="4" t="inlineStr">
+      <c r="Q49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P49" s="4" t="inlineStr">
+      <c r="R49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Q49" s="4" t="inlineStr">
+      <c r="S49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R49" s="4" t="inlineStr">
+      <c r="T49" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="S49" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T49" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="U49" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="V49" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr"/>
       <c r="W49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
@@ -3353,9 +3353,21 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr"/>
-      <c r="C50" s="4" t="inlineStr"/>
-      <c r="D50" s="4" t="inlineStr"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
           <t>S</t>
@@ -3376,69 +3388,57 @@
           <t>S</t>
         </is>
       </c>
-      <c r="I50" s="4" t="inlineStr">
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr"/>
+      <c r="K50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="L50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="K50" s="4" t="inlineStr">
+      <c r="M50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="L50" s="4" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="O50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="P50" s="4" t="inlineStr"/>
+      <c r="Q50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr">
+      <c r="R50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R50" s="4" t="inlineStr">
+      <c r="S50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="T50" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="U50" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="V50" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="W50" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr"/>
+      <c r="W50" s="4" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -3640,29 +3640,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3688,7 +3676,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3698,14 +3686,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -3726,30 +3714,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3769,26 +3747,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I5" t="n">
         <v>0.5</v>
@@ -3812,7 +3790,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3827,11 +3805,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -3855,7 +3833,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3870,7 +3848,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3898,17 +3876,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -3929,29 +3919,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3972,17 +3962,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3991,10 +3981,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4030,11 +4020,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -4058,20 +4048,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>6</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4091,11 +4091,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>21:00</t>
@@ -4104,7 +4112,9 @@
       <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4198,17 +4208,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
@@ -4229,29 +4251,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4272,26 +4282,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
       <c r="H18" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
         <v>0.5</v>
@@ -4358,22 +4368,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>16:30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>21:00</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4401,20 +4411,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4520,17 +4540,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4539,7 +4559,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="I24" t="n">
         <v>0.5</v>
@@ -4563,17 +4583,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -4594,30 +4626,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4637,22 +4659,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -4685,12 +4707,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>15:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>16:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4723,29 +4745,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4766,29 +4776,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31">
@@ -4809,29 +4819,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
